--- a/Assets/00.Data/Excel/Bosstable.xlsx
+++ b/Assets/00.Data/Excel/Bosstable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7611D72-1545-44B4-9089-44A6BBAB0483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D1313-5BDB-4A19-9E66-16E79830EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Boss_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BosstableTable!$B$5:$T$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BosstableTable!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Boss_Table!$B$5:$T$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Boss_Table!$A$1:$AE$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/Assets/00.Data/Excel/Bosstable.xlsx
+++ b/Assets/00.Data/Excel/Bosstable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D1313-5BDB-4A19-9E66-16E79830EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Boss_Table" sheetId="16" r:id="rId1"/>
@@ -478,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1138,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1440,13 +1439,13 @@
         <v>131001</v>
       </c>
       <c r="F6" s="23">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G6" s="23">
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="H6" s="23">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I6" s="23">
         <v>1</v>
@@ -1458,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="L6" s="24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M6" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" s="23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O6" s="25">
         <v>231001</v>
@@ -1476,7 +1475,7 @@
         <v>231003</v>
       </c>
       <c r="R6" s="25">
-        <v>231004</v>
+        <v>231006</v>
       </c>
       <c r="S6" s="25">
         <v>931001</v>
@@ -1504,13 +1503,13 @@
         <v>131002</v>
       </c>
       <c r="F7" s="33">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" s="33">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="H7" s="33">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I7" s="33">
         <v>1</v>
@@ -1522,28 +1521,28 @@
         <v>3</v>
       </c>
       <c r="L7" s="34">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M7" s="33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N7" s="33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O7" s="35">
-        <v>231005</v>
+        <v>231007</v>
       </c>
       <c r="P7" s="35">
         <v>231008</v>
       </c>
       <c r="Q7" s="35">
-        <v>0</v>
+        <v>231012</v>
       </c>
       <c r="R7" s="35">
-        <v>0</v>
+        <v>231013</v>
       </c>
       <c r="S7" s="25">
-        <v>0</v>
+        <v>931002</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="4"/>
@@ -29554,8 +29553,8 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:T105" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T105">
+  <autoFilter ref="B5:T105">
+    <sortState ref="B6:T105">
       <sortCondition ref="B5:B105"/>
     </sortState>
   </autoFilter>
